--- a/contratos/contratos-12-2019.xlsx
+++ b/contratos/contratos-12-2019.xlsx
@@ -673,7 +673,7 @@
     <t>COLICHELLI JOSE G</t>
   </si>
   <si>
-    <t>DENING BLANCO, CRISTIAN DAVID</t>
+    <t>DENING BLANCO. CRISTIAN DAVID</t>
   </si>
   <si>
     <t>BORGO ANGELINA MARIA VERONICA</t>
@@ -838,7 +838,7 @@
     <t>PITER ROMINA PAOLA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TURIN ALBERTO JOSE</t>
@@ -931,7 +931,7 @@
     <t>PAVON MENA HORACIO ROBERTO</t>
   </si>
   <si>
-    <t>GIMENEZ ANIBAL, FALISTOCCO MARISA DANIELA S.H.</t>
+    <t>GIMENEZ ANIBAL. FALISTOCCO MARISA DANIELA SH</t>
   </si>
   <si>
     <t>LATIN PLAY S.R.L.</t>
@@ -1021,7 +1021,7 @@
     <t>SUCESION DE WAISENBERG OSCAR</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>REYMUNDO EDUARDO JORGE</t>
@@ -1498,580 +1498,580 @@
     <t>246</t>
   </si>
   <si>
-    <t>10.600,00</t>
-  </si>
-  <si>
-    <t>20.800,00</t>
-  </si>
-  <si>
-    <t>13.660,00</t>
-  </si>
-  <si>
-    <t>599.000,00</t>
-  </si>
-  <si>
-    <t>269.280,00</t>
-  </si>
-  <si>
-    <t>29.160,00</t>
-  </si>
-  <si>
-    <t>1.999,00</t>
-  </si>
-  <si>
-    <t>37.260,00</t>
-  </si>
-  <si>
-    <t>37.529,00</t>
-  </si>
-  <si>
-    <t>3.779,00</t>
-  </si>
-  <si>
-    <t>20.365,00</t>
-  </si>
-  <si>
-    <t>9.870,00</t>
-  </si>
-  <si>
-    <t>1.840.309,48</t>
-  </si>
-  <si>
-    <t>31.600,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>462.228,00</t>
-  </si>
-  <si>
-    <t>222.505,53</t>
-  </si>
-  <si>
-    <t>672.984,79</t>
-  </si>
-  <si>
-    <t>6.245,00</t>
-  </si>
-  <si>
-    <t>221.040,00</t>
-  </si>
-  <si>
-    <t>6.092,80</t>
-  </si>
-  <si>
-    <t>490.008,18</t>
-  </si>
-  <si>
-    <t>24.194,62</t>
-  </si>
-  <si>
-    <t>69.231,00</t>
-  </si>
-  <si>
-    <t>62.400,00</t>
-  </si>
-  <si>
-    <t>43.271,66</t>
-  </si>
-  <si>
-    <t>118.265,00</t>
-  </si>
-  <si>
-    <t>14.660,00</t>
-  </si>
-  <si>
-    <t>2.071,57</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>44.680,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>39.600,00</t>
-  </si>
-  <si>
-    <t>66.000,00</t>
-  </si>
-  <si>
-    <t>8.018,75</t>
-  </si>
-  <si>
-    <t>24.550,00</t>
-  </si>
-  <si>
-    <t>18.810,00</t>
-  </si>
-  <si>
-    <t>235.334,00</t>
-  </si>
-  <si>
-    <t>18.100,00</t>
-  </si>
-  <si>
-    <t>4.105.209,21</t>
-  </si>
-  <si>
-    <t>201.633,22</t>
-  </si>
-  <si>
-    <t>69.297,38</t>
-  </si>
-  <si>
-    <t>21.101,00</t>
-  </si>
-  <si>
-    <t>43,81</t>
-  </si>
-  <si>
-    <t>16.516,00</t>
-  </si>
-  <si>
-    <t>1.070,00</t>
-  </si>
-  <si>
-    <t>1.873.253,00</t>
-  </si>
-  <si>
-    <t>907,04</t>
-  </si>
-  <si>
-    <t>5.162,03</t>
-  </si>
-  <si>
-    <t>46.547,00</t>
-  </si>
-  <si>
-    <t>30.800,00</t>
-  </si>
-  <si>
-    <t>25.870,00</t>
-  </si>
-  <si>
-    <t>25.796,66</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>18.300,00</t>
-  </si>
-  <si>
-    <t>248,40</t>
-  </si>
-  <si>
-    <t>5.626,25</t>
-  </si>
-  <si>
-    <t>19.400,00</t>
-  </si>
-  <si>
-    <t>14.617,60</t>
-  </si>
-  <si>
-    <t>70.157,28</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>75.395,94</t>
-  </si>
-  <si>
-    <t>5.730,00</t>
-  </si>
-  <si>
-    <t>8.540,00</t>
-  </si>
-  <si>
-    <t>8.999,95</t>
-  </si>
-  <si>
-    <t>23.541,17</t>
-  </si>
-  <si>
-    <t>93.005,70</t>
-  </si>
-  <si>
-    <t>9.848,00</t>
-  </si>
-  <si>
-    <t>96.997,55</t>
-  </si>
-  <si>
-    <t>1.870,50</t>
-  </si>
-  <si>
-    <t>244.800,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>11.720,00</t>
-  </si>
-  <si>
-    <t>31.435,00</t>
-  </si>
-  <si>
-    <t>66.500,00</t>
-  </si>
-  <si>
-    <t>84.500,00</t>
-  </si>
-  <si>
-    <t>54.120,00</t>
-  </si>
-  <si>
-    <t>173.288,80</t>
-  </si>
-  <si>
-    <t>5.038,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>19.062,50</t>
-  </si>
-  <si>
-    <t>14.396,00</t>
-  </si>
-  <si>
-    <t>156.910,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>6.700,00</t>
-  </si>
-  <si>
-    <t>54.977,58</t>
-  </si>
-  <si>
-    <t>31,07</t>
-  </si>
-  <si>
-    <t>20.309,46</t>
-  </si>
-  <si>
-    <t>738,99</t>
-  </si>
-  <si>
-    <t>691,28</t>
-  </si>
-  <si>
-    <t>12.726,00</t>
-  </si>
-  <si>
-    <t>32.444,00</t>
-  </si>
-  <si>
-    <t>17.475,62</t>
-  </si>
-  <si>
-    <t>17.997,00</t>
-  </si>
-  <si>
-    <t>9.890,00</t>
-  </si>
-  <si>
-    <t>8.640,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>6.718,00</t>
-  </si>
-  <si>
-    <t>18.580,00</t>
-  </si>
-  <si>
-    <t>337,00</t>
-  </si>
-  <si>
-    <t>50.932,61</t>
-  </si>
-  <si>
-    <t>1.531,26</t>
-  </si>
-  <si>
-    <t>6.050,00</t>
-  </si>
-  <si>
-    <t>12.570,00</t>
-  </si>
-  <si>
-    <t>1.135,40</t>
-  </si>
-  <si>
-    <t>2.925,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>39.800,00</t>
-  </si>
-  <si>
-    <t>14.398,20</t>
-  </si>
-  <si>
-    <t>2.726,00</t>
-  </si>
-  <si>
-    <t>24.150,00</t>
-  </si>
-  <si>
-    <t>100.200,00</t>
-  </si>
-  <si>
-    <t>17.800,00</t>
-  </si>
-  <si>
-    <t>107.000,00</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>197.087,00</t>
-  </si>
-  <si>
-    <t>119.214,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>4.927.725,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>5.390,60</t>
-  </si>
-  <si>
-    <t>10.665,00</t>
-  </si>
-  <si>
-    <t>2.330,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>48.400,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>13.400,00</t>
-  </si>
-  <si>
-    <t>120,08</t>
-  </si>
-  <si>
-    <t>6.450,00</t>
-  </si>
-  <si>
-    <t>2.780,00</t>
-  </si>
-  <si>
-    <t>1.887,14</t>
-  </si>
-  <si>
-    <t>3.650,00</t>
-  </si>
-  <si>
-    <t>17.681,00</t>
-  </si>
-  <si>
-    <t>2.561,14</t>
-  </si>
-  <si>
-    <t>20.920,00</t>
-  </si>
-  <si>
-    <t>1.335,00</t>
-  </si>
-  <si>
-    <t>16.285,70</t>
-  </si>
-  <si>
-    <t>274,36</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>11.077,80</t>
-  </si>
-  <si>
-    <t>17.620,38</t>
-  </si>
-  <si>
-    <t>534.000,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>31.250,00</t>
-  </si>
-  <si>
-    <t>11.600,00</t>
-  </si>
-  <si>
-    <t>74.018,44</t>
-  </si>
-  <si>
-    <t>20.375.332,96</t>
-  </si>
-  <si>
-    <t>533.400,00</t>
-  </si>
-  <si>
-    <t>12.700,00</t>
-  </si>
-  <si>
-    <t>22.900,00</t>
-  </si>
-  <si>
-    <t>3.865.970,04</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>784.133,00</t>
-  </si>
-  <si>
-    <t>4.393.645,17</t>
-  </si>
-  <si>
-    <t>300.900,00</t>
-  </si>
-  <si>
-    <t>319.920,00</t>
-  </si>
-  <si>
-    <t>298.100,00</t>
-  </si>
-  <si>
-    <t>566.600,00</t>
-  </si>
-  <si>
-    <t>750.150,00</t>
-  </si>
-  <si>
-    <t>737.000,00</t>
-  </si>
-  <si>
-    <t>370.100,00</t>
-  </si>
-  <si>
-    <t>596.200,00</t>
-  </si>
-  <si>
-    <t>479.000,00</t>
-  </si>
-  <si>
-    <t>835.100,00</t>
-  </si>
-  <si>
-    <t>849.960,00</t>
-  </si>
-  <si>
-    <t>310.830,00</t>
-  </si>
-  <si>
-    <t>717.997,90</t>
-  </si>
-  <si>
-    <t>275.000,00</t>
-  </si>
-  <si>
-    <t>18.480,00</t>
-  </si>
-  <si>
-    <t>186.000,00</t>
-  </si>
-  <si>
-    <t>390.776,67</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>110.304,00</t>
-  </si>
-  <si>
-    <t>8.620,00</t>
-  </si>
-  <si>
-    <t>26.200,00</t>
-  </si>
-  <si>
-    <t>205.500,00</t>
-  </si>
-  <si>
-    <t>9.528,75</t>
+    <t>10600.00</t>
+  </si>
+  <si>
+    <t>20800.00</t>
+  </si>
+  <si>
+    <t>13660.00</t>
+  </si>
+  <si>
+    <t>599000.00</t>
+  </si>
+  <si>
+    <t>269280.00</t>
+  </si>
+  <si>
+    <t>29160.00</t>
+  </si>
+  <si>
+    <t>1999.00</t>
+  </si>
+  <si>
+    <t>37260.00</t>
+  </si>
+  <si>
+    <t>37529.00</t>
+  </si>
+  <si>
+    <t>3779.00</t>
+  </si>
+  <si>
+    <t>20365.00</t>
+  </si>
+  <si>
+    <t>9870.00</t>
+  </si>
+  <si>
+    <t>1840309.48</t>
+  </si>
+  <si>
+    <t>31600.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>462228.00</t>
+  </si>
+  <si>
+    <t>222505.53</t>
+  </si>
+  <si>
+    <t>672984.79</t>
+  </si>
+  <si>
+    <t>6245.00</t>
+  </si>
+  <si>
+    <t>221040.00</t>
+  </si>
+  <si>
+    <t>6092.80</t>
+  </si>
+  <si>
+    <t>490008.18</t>
+  </si>
+  <si>
+    <t>24194.62</t>
+  </si>
+  <si>
+    <t>69231.00</t>
+  </si>
+  <si>
+    <t>62400.00</t>
+  </si>
+  <si>
+    <t>43271.66</t>
+  </si>
+  <si>
+    <t>118265.00</t>
+  </si>
+  <si>
+    <t>14660.00</t>
+  </si>
+  <si>
+    <t>2071.57</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>44680.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>39600.00</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>8018.75</t>
+  </si>
+  <si>
+    <t>24550.00</t>
+  </si>
+  <si>
+    <t>18810.00</t>
+  </si>
+  <si>
+    <t>235334.00</t>
+  </si>
+  <si>
+    <t>18100.00</t>
+  </si>
+  <si>
+    <t>4105209.21</t>
+  </si>
+  <si>
+    <t>201633.22</t>
+  </si>
+  <si>
+    <t>69297.38</t>
+  </si>
+  <si>
+    <t>21101.00</t>
+  </si>
+  <si>
+    <t>43.81</t>
+  </si>
+  <si>
+    <t>16516.00</t>
+  </si>
+  <si>
+    <t>1070.00</t>
+  </si>
+  <si>
+    <t>1873253.00</t>
+  </si>
+  <si>
+    <t>907.04</t>
+  </si>
+  <si>
+    <t>5162.03</t>
+  </si>
+  <si>
+    <t>46547.00</t>
+  </si>
+  <si>
+    <t>30800.00</t>
+  </si>
+  <si>
+    <t>25870.00</t>
+  </si>
+  <si>
+    <t>25796.66</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>18300.00</t>
+  </si>
+  <si>
+    <t>248.40</t>
+  </si>
+  <si>
+    <t>5626.25</t>
+  </si>
+  <si>
+    <t>19400.00</t>
+  </si>
+  <si>
+    <t>14617.60</t>
+  </si>
+  <si>
+    <t>70157.28</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>75395.94</t>
+  </si>
+  <si>
+    <t>5730.00</t>
+  </si>
+  <si>
+    <t>8540.00</t>
+  </si>
+  <si>
+    <t>8999.95</t>
+  </si>
+  <si>
+    <t>23541.17</t>
+  </si>
+  <si>
+    <t>93005.70</t>
+  </si>
+  <si>
+    <t>9848.00</t>
+  </si>
+  <si>
+    <t>96997.55</t>
+  </si>
+  <si>
+    <t>1870.50</t>
+  </si>
+  <si>
+    <t>244800.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>11720.00</t>
+  </si>
+  <si>
+    <t>31435.00</t>
+  </si>
+  <si>
+    <t>66500.00</t>
+  </si>
+  <si>
+    <t>84500.00</t>
+  </si>
+  <si>
+    <t>54120.00</t>
+  </si>
+  <si>
+    <t>173288.80</t>
+  </si>
+  <si>
+    <t>5038.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>19062.50</t>
+  </si>
+  <si>
+    <t>14396.00</t>
+  </si>
+  <si>
+    <t>156910.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>6700.00</t>
+  </si>
+  <si>
+    <t>54977.58</t>
+  </si>
+  <si>
+    <t>31.07</t>
+  </si>
+  <si>
+    <t>20309.46</t>
+  </si>
+  <si>
+    <t>738.99</t>
+  </si>
+  <si>
+    <t>691.28</t>
+  </si>
+  <si>
+    <t>12726.00</t>
+  </si>
+  <si>
+    <t>32444.00</t>
+  </si>
+  <si>
+    <t>17475.62</t>
+  </si>
+  <si>
+    <t>17997.00</t>
+  </si>
+  <si>
+    <t>9890.00</t>
+  </si>
+  <si>
+    <t>8640.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>6718.00</t>
+  </si>
+  <si>
+    <t>18580.00</t>
+  </si>
+  <si>
+    <t>337.00</t>
+  </si>
+  <si>
+    <t>50932.61</t>
+  </si>
+  <si>
+    <t>1531.26</t>
+  </si>
+  <si>
+    <t>6050.00</t>
+  </si>
+  <si>
+    <t>12570.00</t>
+  </si>
+  <si>
+    <t>1135.40</t>
+  </si>
+  <si>
+    <t>2925.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>39800.00</t>
+  </si>
+  <si>
+    <t>14398.20</t>
+  </si>
+  <si>
+    <t>2726.00</t>
+  </si>
+  <si>
+    <t>24150.00</t>
+  </si>
+  <si>
+    <t>100200.00</t>
+  </si>
+  <si>
+    <t>17800.00</t>
+  </si>
+  <si>
+    <t>107000.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>197087.00</t>
+  </si>
+  <si>
+    <t>119214.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>4927725.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>5390.60</t>
+  </si>
+  <si>
+    <t>10665.00</t>
+  </si>
+  <si>
+    <t>2330.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>48400.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>13400.00</t>
+  </si>
+  <si>
+    <t>120.08</t>
+  </si>
+  <si>
+    <t>6450.00</t>
+  </si>
+  <si>
+    <t>2780.00</t>
+  </si>
+  <si>
+    <t>1887.14</t>
+  </si>
+  <si>
+    <t>3650.00</t>
+  </si>
+  <si>
+    <t>17681.00</t>
+  </si>
+  <si>
+    <t>2561.14</t>
+  </si>
+  <si>
+    <t>20920.00</t>
+  </si>
+  <si>
+    <t>1335.00</t>
+  </si>
+  <si>
+    <t>16285.70</t>
+  </si>
+  <si>
+    <t>274.36</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>11077.80</t>
+  </si>
+  <si>
+    <t>17620.38</t>
+  </si>
+  <si>
+    <t>534000.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>31250.00</t>
+  </si>
+  <si>
+    <t>11600.00</t>
+  </si>
+  <si>
+    <t>74018.44</t>
+  </si>
+  <si>
+    <t>20375332.96</t>
+  </si>
+  <si>
+    <t>533400.00</t>
+  </si>
+  <si>
+    <t>12700.00</t>
+  </si>
+  <si>
+    <t>22900.00</t>
+  </si>
+  <si>
+    <t>3865970.04</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>784133.00</t>
+  </si>
+  <si>
+    <t>4393645.17</t>
+  </si>
+  <si>
+    <t>300900.00</t>
+  </si>
+  <si>
+    <t>319920.00</t>
+  </si>
+  <si>
+    <t>298100.00</t>
+  </si>
+  <si>
+    <t>566600.00</t>
+  </si>
+  <si>
+    <t>750150.00</t>
+  </si>
+  <si>
+    <t>737000.00</t>
+  </si>
+  <si>
+    <t>370100.00</t>
+  </si>
+  <si>
+    <t>596200.00</t>
+  </si>
+  <si>
+    <t>479000.00</t>
+  </si>
+  <si>
+    <t>835100.00</t>
+  </si>
+  <si>
+    <t>849960.00</t>
+  </si>
+  <si>
+    <t>310830.00</t>
+  </si>
+  <si>
+    <t>717997.90</t>
+  </si>
+  <si>
+    <t>275000.00</t>
+  </si>
+  <si>
+    <t>18480.00</t>
+  </si>
+  <si>
+    <t>186000.00</t>
+  </si>
+  <si>
+    <t>390776.67</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>110304.00</t>
+  </si>
+  <si>
+    <t>8620.00</t>
+  </si>
+  <si>
+    <t>26200.00</t>
+  </si>
+  <si>
+    <t>205500.00</t>
+  </si>
+  <si>
+    <t>9528.75</t>
   </si>
 </sst>
 </file>
